--- a/biology/Botanique/Roystonea/Roystonea.xlsx
+++ b/biology/Botanique/Roystonea/Roystonea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roystonea est un genre de plantes de la famille des Arécacées (les palmiers). Il comprend des espèces d'assez grande taille, qui vivent principalement en Amérique centrale et en Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stipe : Ils peuvent être très grands et sont d'une couleur blanc-gris.
 Couronne : Elle peut mesurer jusqu'à deux mètres de haut.
@@ -579,7 +595,9 @@
           <t>Habitat et milieu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Antilles, Floride et Amérique du Sud. Ils poussent généralement dans les forêts tropicales humides ou dans les zones humides.
 </t>
@@ -610,7 +628,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le genre comprend dix espèces actuelles.
 Roystonea altissima (Mill.) H.E.Moore, Gentes Herb. 9: 239 (1963).
@@ -622,10 +642,44 @@
 Roystonea princeps (Becc.) Burret, Bot. Jahrb. Syst. 63: 76 (1929).
 Roystonea regia (Kunth) O.F.Cook, Science, II, 12: 479 (1900).
 Roystonea stellata Léon, Mem. Soc. Cub. Hist. Nat. "Felipe Poey" 17: 11 (1943).
-Roystonea violacea Léon, Mem. Soc. Cub. Hist. Nat. "Felipe Poey" 17: 10 (1943).
-Menacées et disparues
-Roystonea dunlapiana et Roystonea stellata sont des espèces menacées selon la Liste rouge de l'UICN, classée en danger. Roystonea lenis est classée comme vulnérable et Roystonea princeps comme présentant un faible risque de disparition.
-Roystonea palaea est une espèce préhistorique du Burdigalien découverte dans l'ambre dominicain[1].</t>
+Roystonea violacea Léon, Mem. Soc. Cub. Hist. Nat. "Felipe Poey" 17: 10 (1943).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roystonea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roystonea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Menacées et disparues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Roystonea dunlapiana et Roystonea stellata sont des espèces menacées selon la Liste rouge de l'UICN, classée en danger. Roystonea lenis est classée comme vulnérable et Roystonea princeps comme présentant un faible risque de disparition.
+Roystonea palaea est une espèce préhistorique du Burdigalien découverte dans l'ambre dominicain.</t>
         </is>
       </c>
     </row>
